--- a/Documents/WebRTC招标.xlsx
+++ b/Documents/WebRTC招标.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>CSDN账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +214,24 @@
 1. 加一个流，实现真正意义的点对点
 2. 对方视频需要满屏，自己的视频可以以小窗口层叠显示
 3. 加入穿墙服务（这一点如果时间来不及可以先不做）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RomJepson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做过视频产品，兼职</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iOS平台客户使用SIP协议h264编码实现端与端的通信，并且解决NAT的问题。
+之前负责过iOS平台和Android平台的VoIP客户端及服务器，并且实现半双工的多人语音会议。
+项目周期及费用可以根据可能合作的项目进一步商议确定。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -316,7 +334,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -336,6 +354,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -638,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -831,6 +852,26 @@
         <v>34</v>
       </c>
     </row>
+    <row r="9" spans="1:10" ht="108">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>18600802281</v>
+      </c>
+      <c r="C9">
+        <v>827943855</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
